--- a/Sonoran-data/raw/from-Master_seed-mix_LO_Sonoran.xlsx
+++ b/Sonoran-data/raw/from-Master_seed-mix_LO_Sonoran.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/Sonoran-data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eltnmsu-my.sharepoint.com/personal/lossanna_nmsu_edu/Documents/Documents/02_RestoreNet/RestoreNet/Sonoran-data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1065" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{193A9549-89D5-40DF-8DA2-8DC6844A11F2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
   </bookViews>
   <sheets>
     <sheet name="from-Master.xlsx" sheetId="1" r:id="rId1"/>
@@ -18976,9 +18976,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C16732-78E8-4180-9D72-8B4FBFFEDAA3}">
   <dimension ref="A1:I311"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D245" sqref="D245"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D216" sqref="D216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28023,9 +28023,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3956EC7-86B1-4603-B84C-C9BA64C80C6D}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
